--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H2">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N2">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O2">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P2">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q2">
-        <v>12.73245085308168</v>
+        <v>13.744783775932</v>
       </c>
       <c r="R2">
-        <v>12.73245085308168</v>
+        <v>123.703053983388</v>
       </c>
       <c r="S2">
-        <v>0.09103104627833768</v>
+        <v>0.07726461061657942</v>
       </c>
       <c r="T2">
-        <v>0.09103104627833768</v>
+        <v>0.0772646106165794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H3">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N3">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O3">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P3">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q3">
-        <v>45.41040051633483</v>
+        <v>48.91702596585201</v>
       </c>
       <c r="R3">
-        <v>45.41040051633483</v>
+        <v>440.253233692668</v>
       </c>
       <c r="S3">
-        <v>0.3246630455219718</v>
+        <v>0.2749810419274041</v>
       </c>
       <c r="T3">
-        <v>0.3246630455219718</v>
+        <v>0.274981041927404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H4">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.50721036210791</v>
+        <v>8.209926333333334</v>
       </c>
       <c r="N4">
-        <v>7.50721036210791</v>
+        <v>24.629779</v>
       </c>
       <c r="O4">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="P4">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="Q4">
-        <v>6.404248241613905</v>
+        <v>7.531515490631</v>
       </c>
       <c r="R4">
-        <v>6.404248241613905</v>
+        <v>67.783639415679</v>
       </c>
       <c r="S4">
-        <v>0.04578736841691528</v>
+        <v>0.04233748753147496</v>
       </c>
       <c r="T4">
-        <v>0.04578736841691528</v>
+        <v>0.04233748753147495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H5">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I5">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J5">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N5">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O5">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P5">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q5">
-        <v>10.88723183298528</v>
+        <v>12.346523100428</v>
       </c>
       <c r="R5">
-        <v>10.88723183298528</v>
+        <v>111.118707903852</v>
       </c>
       <c r="S5">
-        <v>0.07783859653317261</v>
+        <v>0.06940446029377333</v>
       </c>
       <c r="T5">
-        <v>0.07783859653317261</v>
+        <v>0.06940446029377333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H6">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I6">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J6">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N6">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O6">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P6">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q6">
-        <v>38.8294102804561</v>
+        <v>43.94068331210801</v>
       </c>
       <c r="R6">
-        <v>38.8294102804561</v>
+        <v>395.466149808972</v>
       </c>
       <c r="S6">
-        <v>0.2776120548185937</v>
+        <v>0.2470071440688229</v>
       </c>
       <c r="T6">
-        <v>0.2776120548185937</v>
+        <v>0.2470071440688228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H7">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.50721036210791</v>
+        <v>8.209926333333334</v>
       </c>
       <c r="N7">
-        <v>7.50721036210791</v>
+        <v>24.629779</v>
       </c>
       <c r="O7">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="P7">
-        <v>0.09921821863734814</v>
+        <v>0.1072967474570214</v>
       </c>
       <c r="Q7">
-        <v>5.476128368919897</v>
+        <v>6.765332325499</v>
       </c>
       <c r="R7">
-        <v>5.476128368919897</v>
+        <v>60.887990929491</v>
       </c>
       <c r="S7">
-        <v>0.03915174703828618</v>
+        <v>0.03803048315221631</v>
       </c>
       <c r="T7">
-        <v>0.03915174703828618</v>
+        <v>0.03803048315221631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H8">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I8">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J8">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.925278248614</v>
+        <v>14.98286266666667</v>
       </c>
       <c r="N8">
-        <v>14.925278248614</v>
+        <v>44.948588</v>
       </c>
       <c r="O8">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302862</v>
       </c>
       <c r="P8">
-        <v>0.1972582955672549</v>
+        <v>0.1958132590302861</v>
       </c>
       <c r="Q8">
-        <v>3.970701653725078</v>
+        <v>2.578715476422667</v>
       </c>
       <c r="R8">
-        <v>3.970701653725078</v>
+        <v>23.208439287804</v>
       </c>
       <c r="S8">
-        <v>0.02838865275574457</v>
+        <v>0.01449593172397754</v>
       </c>
       <c r="T8">
-        <v>0.02838865275574457</v>
+        <v>0.01449593172397753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H9">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I9">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J9">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.2311391505007</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N9">
-        <v>53.2311391505007</v>
+        <v>159.969868</v>
       </c>
       <c r="O9">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126925</v>
       </c>
       <c r="P9">
-        <v>0.703523485795397</v>
+        <v>0.6968899935126924</v>
       </c>
       <c r="Q9">
-        <v>14.1615431708411</v>
+        <v>9.177524650449334</v>
       </c>
       <c r="R9">
-        <v>14.1615431708411</v>
+        <v>82.597721854044</v>
       </c>
       <c r="S9">
-        <v>0.1012483854548316</v>
+        <v>0.05159032547188578</v>
       </c>
       <c r="T9">
-        <v>0.1012483854548316</v>
+        <v>0.05159032547188576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,433 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.172111</v>
+      </c>
+      <c r="H10">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J10">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.209926333333334</v>
+      </c>
+      <c r="N10">
+        <v>24.629779</v>
+      </c>
+      <c r="O10">
+        <v>0.1072967474570214</v>
+      </c>
+      <c r="P10">
+        <v>0.1072967474570214</v>
+      </c>
+      <c r="Q10">
+        <v>1.413018631156333</v>
+      </c>
+      <c r="R10">
+        <v>12.717167680407</v>
+      </c>
+      <c r="S10">
+        <v>0.007943110354448859</v>
+      </c>
+      <c r="T10">
+        <v>0.007943110354448857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.076847</v>
+      </c>
+      <c r="H11">
+        <v>0.230541</v>
+      </c>
+      <c r="I11">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J11">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.98286266666667</v>
+      </c>
+      <c r="N11">
+        <v>44.948588</v>
+      </c>
+      <c r="O11">
+        <v>0.1958132590302862</v>
+      </c>
+      <c r="P11">
+        <v>0.1958132590302861</v>
+      </c>
+      <c r="Q11">
+        <v>1.151388047345333</v>
+      </c>
+      <c r="R11">
+        <v>10.362492426108</v>
+      </c>
+      <c r="S11">
+        <v>0.006472386222800994</v>
+      </c>
+      <c r="T11">
+        <v>0.006472386222800993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.076847</v>
+      </c>
+      <c r="H12">
+        <v>0.230541</v>
+      </c>
+      <c r="I12">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J12">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.32328933333334</v>
+      </c>
+      <c r="N12">
+        <v>159.969868</v>
+      </c>
+      <c r="O12">
+        <v>0.6968899935126925</v>
+      </c>
+      <c r="P12">
+        <v>0.6968899935126924</v>
+      </c>
+      <c r="Q12">
+        <v>4.097734815398668</v>
+      </c>
+      <c r="R12">
+        <v>36.879613338588</v>
+      </c>
+      <c r="S12">
+        <v>0.02303491201339837</v>
+      </c>
+      <c r="T12">
+        <v>0.02303491201339837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="H10">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="I10">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="J10">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.50721036210791</v>
-      </c>
-      <c r="N10">
-        <v>7.50721036210791</v>
-      </c>
-      <c r="O10">
-        <v>0.09921821863734814</v>
-      </c>
-      <c r="P10">
-        <v>0.09921821863734814</v>
-      </c>
-      <c r="Q10">
-        <v>1.997208501118031</v>
-      </c>
-      <c r="R10">
-        <v>1.997208501118031</v>
-      </c>
-      <c r="S10">
-        <v>0.01427910318214669</v>
-      </c>
-      <c r="T10">
-        <v>0.01427910318214669</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.076847</v>
+      </c>
+      <c r="H13">
+        <v>0.230541</v>
+      </c>
+      <c r="I13">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J13">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.209926333333334</v>
+      </c>
+      <c r="N13">
+        <v>24.629779</v>
+      </c>
+      <c r="O13">
+        <v>0.1072967474570214</v>
+      </c>
+      <c r="P13">
+        <v>0.1072967474570214</v>
+      </c>
+      <c r="Q13">
+        <v>0.6309082089376666</v>
+      </c>
+      <c r="R13">
+        <v>5.678173880439001</v>
+      </c>
+      <c r="S13">
+        <v>0.003546572859424043</v>
+      </c>
+      <c r="T13">
+        <v>0.003546572859424043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.003601</v>
+      </c>
+      <c r="I14">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J14">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.98286266666667</v>
+      </c>
+      <c r="N14">
+        <v>44.948588</v>
+      </c>
+      <c r="O14">
+        <v>0.1958132590302862</v>
+      </c>
+      <c r="P14">
+        <v>0.1958132590302861</v>
+      </c>
+      <c r="Q14">
+        <v>5.012271985043111</v>
+      </c>
+      <c r="R14">
+        <v>45.110447865388</v>
+      </c>
+      <c r="S14">
+        <v>0.02817587017315488</v>
+      </c>
+      <c r="T14">
+        <v>0.02817587017315488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.003601</v>
+      </c>
+      <c r="I15">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J15">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.32328933333334</v>
+      </c>
+      <c r="N15">
+        <v>159.969868</v>
+      </c>
+      <c r="O15">
+        <v>0.6968899935126925</v>
+      </c>
+      <c r="P15">
+        <v>0.6968899935126924</v>
+      </c>
+      <c r="Q15">
+        <v>17.83843549940756</v>
+      </c>
+      <c r="R15">
+        <v>160.545919494668</v>
+      </c>
+      <c r="S15">
+        <v>0.1002765700311815</v>
+      </c>
+      <c r="T15">
+        <v>0.1002765700311815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.003601</v>
+      </c>
+      <c r="I16">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J16">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.209926333333334</v>
+      </c>
+      <c r="N16">
+        <v>24.629779</v>
+      </c>
+      <c r="O16">
+        <v>0.1072967474570214</v>
+      </c>
+      <c r="P16">
+        <v>0.1072967474570214</v>
+      </c>
+      <c r="Q16">
+        <v>2.746496759353223</v>
+      </c>
+      <c r="R16">
+        <v>24.718470834179</v>
+      </c>
+      <c r="S16">
+        <v>0.01543909355945723</v>
+      </c>
+      <c r="T16">
+        <v>0.01543909355945723</v>
       </c>
     </row>
   </sheetData>
